--- a/public/document/LeadsDocument.xlsx
+++ b/public/document/LeadsDocument.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OFFICEPROJECT\hrit\public\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFB9E23-35FB-46A7-8FF2-5BE598826EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D748CAC-9028-46C7-AAEC-CDFC3BDC227C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="11736" windowHeight="19992" xr2:uid="{D4B16885-18F5-44EE-918D-E26DAEB81DEF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D4B16885-18F5-44EE-918D-E26DAEB81DEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Category List" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>firstName</t>
   </si>
@@ -85,13 +86,112 @@
   </si>
   <si>
     <t>schoolName</t>
+  </si>
+  <si>
+    <t>Category List</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>How did you know about us</t>
+  </si>
+  <si>
+    <t>Highly Interested</t>
+  </si>
+  <si>
+    <t>Counselled need follow up</t>
+  </si>
+  <si>
+    <t>Admitted</t>
+  </si>
+  <si>
+    <t>Looking for other colleges as well</t>
+  </si>
+  <si>
+    <t>Expensive Fees</t>
+  </si>
+  <si>
+    <t>Joined other College</t>
+  </si>
+  <si>
+    <t>Not Reachable</t>
+  </si>
+  <si>
+    <t>Not Eligible</t>
+  </si>
+  <si>
+    <t>Course Intrested</t>
+  </si>
+  <si>
+    <t>Science (Biology)</t>
+  </si>
+  <si>
+    <t>Science (Physics/ Computer Science )</t>
+  </si>
+  <si>
+    <t>Management (Business Studies)</t>
+  </si>
+  <si>
+    <t>Management (Hotel Management)</t>
+  </si>
+  <si>
+    <t>Management (Computer Science)</t>
+  </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>College Visit</t>
+  </si>
+  <si>
+    <t>Phone Inquiry</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Friends</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Alumni</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Nikesh</t>
+  </si>
+  <si>
+    <t>Shrestha</t>
+  </si>
+  <si>
+    <t>testing@test.com</t>
+  </si>
+  <si>
+    <t>chagal</t>
+  </si>
+  <si>
+    <t>Sirius Higher Secondary School</t>
+  </si>
+  <si>
+    <t>Bafal</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>instituteName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +206,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,10 +234,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -448,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E23357-7743-4659-9420-CBA77DC2790A}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,15 +572,18 @@
     <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.109375" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" customWidth="1"/>
+    <col min="12" max="12" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" customWidth="1"/>
     <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,27 +621,196 @@
         <v>8</v>
       </c>
       <c r="M1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C2" s="1"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2">
+        <v>9841270887</v>
+      </c>
+      <c r="G2">
+        <v>9841270887</v>
+      </c>
+      <c r="H2">
+        <v>2082</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>45796</v>
+      </c>
+      <c r="R2" s="2">
+        <v>45797</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{5405F58B-2A9A-48F2-AADB-D32BE032CCD8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8EAB50-4FD2-4224-9138-F9AB4FF1090A}">
+  <dimension ref="B1:E9"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>